--- a/Estatistico_GHI.xlsx
+++ b/Estatistico_GHI.xlsx
@@ -19,37 +19,37 @@
     <t>GHI</t>
   </si>
   <si>
-    <t>20.0</t>
-  </si>
-  <si>
-    <t>23330.0</t>
-  </si>
-  <si>
-    <t>247.0</t>
-  </si>
-  <si>
-    <t>780.0</t>
-  </si>
-  <si>
-    <t>18823.0</t>
+    <t>7.0</t>
+  </si>
+  <si>
+    <t>23958.0</t>
+  </si>
+  <si>
+    <t>21.0</t>
+  </si>
+  <si>
+    <t>69.0</t>
+  </si>
+  <si>
+    <t>19145.0</t>
   </si>
   <si>
     <t>%</t>
   </si>
   <si>
-    <t>0.000462962962962963</t>
-  </si>
-  <si>
-    <t>0.5400462962962963</t>
-  </si>
-  <si>
-    <t>0.005717592592592593</t>
-  </si>
-  <si>
-    <t>0.018055555555555554</t>
-  </si>
-  <si>
-    <t>0.4357175925925926</t>
+    <t>0.00016203703703703703</t>
+  </si>
+  <si>
+    <t>0.5545833333333333</t>
+  </si>
+  <si>
+    <t>0.0004861111111111111</t>
+  </si>
+  <si>
+    <t>0.0015972222222222223</t>
+  </si>
+  <si>
+    <t>0.4431712962962963</t>
   </si>
 </sst>
 </file>
